--- a/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
+++ b/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_B_lideres\ILRG_ORAM_B_lideres-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB45037-828F-4356-BB24-25F3D61D1A78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA6FB58-256D-4B61-B2E3-B64FA6CA6226}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1116">
   <si>
     <t>type</t>
   </si>
@@ -3371,7 +3371,13 @@
 Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
-    <t>&lt;h1&gt;Introduza o seu nome&lt;/h&gt;&lt;br&gt;&lt;br&gt;Nome do(a) técnico(a):</t>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Introduza o seu nome&lt;/h2&gt;&lt;br&gt;&lt;br&gt;Nome do(a) técnico(a):</t>
   </si>
 </sst>
 </file>
@@ -3829,7 +3835,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3972,6 +3978,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4547,13 +4556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,40 +4640,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>1045</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B5" s="52" t="s">
         <v>1046</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M5" s="50" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B6" s="44" t="s">
         <v>1076</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L6" s="50" t="s">
         <v>1070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4672,78 +4681,72 @@
         <v>33</v>
       </c>
       <c r="B7" s="51" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>1073</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C8" s="63" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="51"/>
-    </row>
-    <row r="9" spans="1:15" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="B9" s="51"/>
+    </row>
+    <row r="10" spans="1:15" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C10" s="64" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B11" s="51" t="s">
         <v>1077</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="C11" s="65" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B12" s="44" t="s">
         <v>1082</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G12" s="50" t="s">
         <v>1079</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L12" s="50" t="s">
         <v>1070</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4751,10 +4754,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>1025</v>
@@ -4764,57 +4767,54 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="51"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="51"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>21</v>
@@ -4824,17 +4824,17 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>1098</v>
+      <c r="A18" s="16" t="s">
+        <v>1003</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>1095</v>
+        <v>43</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>21</v>
@@ -4845,16 +4845,16 @@
     </row>
     <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>1096</v>
+        <v>1006</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>1007</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>21</v>
@@ -4864,48 +4864,48 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="50" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B21" s="44" t="s">
         <v>1084</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>1029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>1085</v>
+      <c r="B22" s="45" t="s">
+        <v>1024</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1037</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>1025</v>
@@ -4922,10 +4922,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>1025</v>
@@ -4941,48 +4941,57 @@
       <c r="A24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="51" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>1027</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>1033</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L25" s="20" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>1092</v>
+        <v>1089</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4990,54 +4999,65 @@
         <v>28</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B30" s="51" t="s">
         <v>1094</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J30" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B31" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H31" s="16" t="s">
         <v>1010</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I31" s="20" t="s">
         <v>1026</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J31" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B32" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -30726,8 +30746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30761,7 +30781,7 @@
         <v>1101</v>
       </c>
       <c r="C2" s="58">
-        <v>201902273</v>
+        <v>201902271</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>1105</v>

--- a/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
+++ b/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_B_lideres\ILRG_ORAM_B_lideres-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA6FB58-256D-4B61-B2E3-B64FA6CA6226}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4955E6A-D07B-4356-85F2-4E1A20A43619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1115">
   <si>
     <t>type</t>
   </si>
@@ -3235,22 +3235,13 @@
     <t>other</t>
   </si>
   <si>
-    <t>Inicio</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
     <t>logo</t>
   </si>
   <si>
-    <t>form_logo.jpg</t>
-  </si>
-  <si>
     <t>cavateco</t>
-  </si>
-  <si>
-    <t>&lt;br/&gt; &lt;h1&gt;A Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;Uma iniciativa da Terra Firma&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
   </si>
   <si>
     <t>"Formulario B - Recolha de Dados Iniciais"</t>
@@ -3377,7 +3368,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Introduza o seu nome&lt;/h2&gt;&lt;br&gt;&lt;br&gt;Nome do(a) técnico(a):</t>
+    <t>Introduza o seu nome&lt;br&gt;Nome do(a) técnico(a):</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt; &lt;h1&gt;Projecto de Governação Integrada de Terra e Recursos&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;Uma iniciativa da USAID implementada pela ORAM e Terra Firma&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>oram_USAID.jpg</t>
   </si>
 </sst>
 </file>
@@ -3973,14 +3970,14 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4562,7 +4559,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,15 +4637,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>1114</v>
+    <row r="4" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4659,7 +4656,7 @@
         <v>1046</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4667,13 +4664,11 @@
         <v>22</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="L6" s="50" t="s">
         <v>1069</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4681,10 +4676,10 @@
         <v>33</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>1072</v>
+        <v>1070</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4692,10 +4687,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>1074</v>
+        <v>1071</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4711,8 +4706,8 @@
       <c r="B10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>1112</v>
+      <c r="C10" s="63" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4720,10 +4715,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>1115</v>
+        <v>1074</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>1112</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>21</v>
@@ -4737,16 +4732,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4754,10 +4749,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>1025</v>
@@ -4771,10 +4766,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>1025</v>
@@ -4845,10 +4840,10 @@
     </row>
     <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>1006</v>
@@ -4865,16 +4860,16 @@
     </row>
     <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>1009</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>21</v>
@@ -4888,7 +4883,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1029</v>
@@ -4922,7 +4917,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>1031</v>
@@ -4942,7 +4937,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>1032</v>
@@ -4982,7 +4977,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>1034</v>
@@ -4999,10 +4994,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5010,10 +5005,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5021,7 +5016,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>1036</v>
@@ -5194,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>1058</v>
@@ -5250,7 +5245,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>1065</v>
@@ -5448,10 +5443,10 @@
         <v>43</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7871,7 +7866,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B149" s="61" t="s">
         <v>325</v>
@@ -7885,7 +7880,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B150" s="40" t="s">
         <v>327</v>
@@ -7899,7 +7894,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B151" s="40" t="s">
         <v>329</v>
@@ -7913,7 +7908,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B152" s="40" t="s">
         <v>331</v>
@@ -7927,7 +7922,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B153" s="57" t="s">
         <v>333</v>
@@ -7941,7 +7936,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B154" s="40" t="s">
         <v>335</v>
@@ -7955,7 +7950,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B155" s="40" t="s">
         <v>337</v>
@@ -7969,7 +7964,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B156" s="40" t="s">
         <v>339</v>
@@ -7983,7 +7978,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B157" s="40" t="s">
         <v>341</v>
@@ -7997,7 +7992,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B158" s="40" t="s">
         <v>343</v>
@@ -8011,7 +8006,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B159" s="40" t="s">
         <v>344</v>
@@ -8025,7 +8020,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B160" s="40" t="s">
         <v>346</v>
@@ -8039,7 +8034,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B161" s="40" t="s">
         <v>348</v>
@@ -8053,7 +8048,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B162" s="40" t="s">
         <v>349</v>
@@ -8067,7 +8062,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B163" s="40" t="s">
         <v>351</v>
@@ -8081,7 +8076,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B164" s="40" t="s">
         <v>352</v>
@@ -8095,7 +8090,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B165" s="40" t="s">
         <v>354</v>
@@ -8109,7 +8104,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B166" s="40" t="s">
         <v>356</v>
@@ -8123,7 +8118,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B167" s="40" t="s">
         <v>357</v>
@@ -8137,7 +8132,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B168" s="40" t="s">
         <v>359</v>
@@ -8151,7 +8146,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B169" s="40" t="s">
         <v>360</v>
@@ -8165,7 +8160,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B170" s="40" t="s">
         <v>362</v>
@@ -8179,7 +8174,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>363</v>
@@ -8193,7 +8188,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B172" s="40" t="s">
         <v>364</v>
@@ -8207,7 +8202,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B173" s="40" t="s">
         <v>365</v>
@@ -8221,7 +8216,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B174" s="40" t="s">
         <v>367</v>
@@ -8235,7 +8230,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B175" s="40" t="s">
         <v>368</v>
@@ -8249,7 +8244,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>370</v>
@@ -8263,7 +8258,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B177" s="40" t="s">
         <v>371</v>
@@ -8277,7 +8272,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B178" s="40" t="s">
         <v>373</v>
@@ -8291,7 +8286,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B179" s="40" t="s">
         <v>375</v>
@@ -8305,7 +8300,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B180" s="57" t="s">
         <v>377</v>
@@ -8319,7 +8314,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B181" s="40" t="s">
         <v>378</v>
@@ -8333,7 +8328,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B182" s="40" t="s">
         <v>380</v>
@@ -8347,7 +8342,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B183" s="40" t="s">
         <v>381</v>
@@ -8361,7 +8356,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B184" s="40" t="s">
         <v>383</v>
@@ -8375,7 +8370,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B185" s="40" t="s">
         <v>385</v>
@@ -8389,7 +8384,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B186" s="40" t="s">
         <v>387</v>
@@ -8403,7 +8398,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B187" s="40" t="s">
         <v>388</v>
@@ -8417,7 +8412,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B188" s="40" t="s">
         <v>390</v>
@@ -8431,7 +8426,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B189" s="40" t="s">
         <v>392</v>
@@ -8445,7 +8440,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B190" s="40" t="s">
         <v>393</v>
@@ -8459,7 +8454,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B191" s="40" t="s">
         <v>395</v>
@@ -8473,7 +8468,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B192" s="40" t="s">
         <v>397</v>
@@ -8487,7 +8482,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B193" s="40" t="s">
         <v>399</v>
@@ -8501,7 +8496,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B194" s="40" t="s">
         <v>400</v>
@@ -8515,7 +8510,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B195" s="40" t="s">
         <v>402</v>
@@ -8529,7 +8524,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B196" s="40" t="s">
         <v>404</v>
@@ -8543,7 +8538,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B197" s="40" t="s">
         <v>406</v>
@@ -8557,7 +8552,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B198" s="40" t="s">
         <v>408</v>
@@ -8571,7 +8566,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B199" s="40" t="s">
         <v>410</v>
@@ -8585,7 +8580,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B200" s="40" t="s">
         <v>411</v>
@@ -8599,7 +8594,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B201" s="40" t="s">
         <v>413</v>
@@ -8613,7 +8608,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B202" s="40" t="s">
         <v>414</v>
@@ -8627,7 +8622,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B203" s="40" t="s">
         <v>416</v>
@@ -8641,7 +8636,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B204" s="40" t="s">
         <v>418</v>
@@ -8655,7 +8650,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B205" s="40" t="s">
         <v>420</v>
@@ -8669,7 +8664,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B206" s="40" t="s">
         <v>421</v>
@@ -8683,7 +8678,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B207" s="40" t="s">
         <v>423</v>
@@ -8697,7 +8692,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B208" s="40" t="s">
         <v>424</v>
@@ -8711,7 +8706,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B209" s="40" t="s">
         <v>426</v>
@@ -8725,7 +8720,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B210" s="40" t="s">
         <v>428</v>
@@ -8739,7 +8734,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B211" s="40" t="s">
         <v>430</v>
@@ -8753,7 +8748,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B212" s="40" t="s">
         <v>432</v>
@@ -8767,7 +8762,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B213" s="40" t="s">
         <v>434</v>
@@ -8781,7 +8776,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B214" s="40" t="s">
         <v>436</v>
@@ -8795,7 +8790,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B215" s="40" t="s">
         <v>438</v>
@@ -8809,7 +8804,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B216" s="40" t="s">
         <v>440</v>
@@ -8823,7 +8818,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B217" s="40" t="s">
         <v>441</v>
@@ -8837,7 +8832,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B218" s="40" t="s">
         <v>443</v>
@@ -8851,7 +8846,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B219" s="40" t="s">
         <v>445</v>
@@ -8865,7 +8860,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B220" s="40" t="s">
         <v>447</v>
@@ -8879,7 +8874,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B221" s="40" t="s">
         <v>448</v>
@@ -8893,7 +8888,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B222" s="40" t="s">
         <v>449</v>
@@ -8907,7 +8902,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B223" s="40" t="s">
         <v>451</v>
@@ -8921,7 +8916,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B224" s="40" t="s">
         <v>453</v>
@@ -8935,7 +8930,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>454</v>
@@ -8949,7 +8944,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B226" s="40" t="s">
         <v>456</v>
@@ -8963,7 +8958,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B227" s="57" t="s">
         <v>458</v>
@@ -8977,7 +8972,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B228" s="57" t="s">
         <v>460</v>
@@ -8991,7 +8986,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B229" s="40" t="s">
         <v>462</v>
@@ -9005,7 +9000,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B230" s="40" t="s">
         <v>464</v>
@@ -9019,7 +9014,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B231" s="40" t="s">
         <v>465</v>
@@ -9033,7 +9028,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B232" s="40" t="s">
         <v>467</v>
@@ -9047,7 +9042,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B233" s="40" t="s">
         <v>468</v>
@@ -9061,7 +9056,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B234" s="40" t="s">
         <v>470</v>
@@ -9075,7 +9070,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B235" s="40" t="s">
         <v>472</v>
@@ -9089,7 +9084,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B236" s="40" t="s">
         <v>474</v>
@@ -9103,7 +9098,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B237" s="40" t="s">
         <v>476</v>
@@ -9117,7 +9112,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B238" s="40" t="s">
         <v>478</v>
@@ -9131,7 +9126,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B239" s="40" t="s">
         <v>479</v>
@@ -9145,7 +9140,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B240" s="40" t="s">
         <v>481</v>
@@ -9159,7 +9154,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B241" s="40" t="s">
         <v>483</v>
@@ -9173,7 +9168,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B242" s="40" t="s">
         <v>485</v>
@@ -9187,7 +9182,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B243" s="40" t="s">
         <v>487</v>
@@ -9201,7 +9196,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B244" s="40" t="s">
         <v>488</v>
@@ -9215,7 +9210,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B245" s="40" t="s">
         <v>489</v>
@@ -9229,7 +9224,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B246" s="40" t="s">
         <v>491</v>
@@ -9243,7 +9238,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B247" s="40" t="s">
         <v>493</v>
@@ -9257,7 +9252,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B248" s="40" t="s">
         <v>495</v>
@@ -9271,7 +9266,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B249" s="40" t="s">
         <v>496</v>
@@ -9285,7 +9280,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B250" s="40" t="s">
         <v>498</v>
@@ -9299,7 +9294,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B251" s="40" t="s">
         <v>499</v>
@@ -9313,7 +9308,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B252" s="40" t="s">
         <v>501</v>
@@ -9327,7 +9322,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B253" s="40" t="s">
         <v>503</v>
@@ -9341,7 +9336,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B254" s="40" t="s">
         <v>504</v>
@@ -9355,7 +9350,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B255" s="40" t="s">
         <v>506</v>
@@ -9369,7 +9364,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B256" s="40" t="s">
         <v>508</v>
@@ -9383,7 +9378,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B257" s="40" t="s">
         <v>510</v>
@@ -9397,7 +9392,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B258" s="40" t="s">
         <v>511</v>
@@ -9411,7 +9406,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B259" s="40" t="s">
         <v>513</v>
@@ -9425,7 +9420,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B260" s="40" t="s">
         <v>515</v>
@@ -9439,7 +9434,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B261" s="40" t="s">
         <v>517</v>
@@ -9453,7 +9448,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B262" s="40" t="s">
         <v>518</v>
@@ -9467,7 +9462,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B263" s="40" t="s">
         <v>520</v>
@@ -9481,7 +9476,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B264" s="40" t="s">
         <v>521</v>
@@ -9495,7 +9490,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B265" s="40" t="s">
         <v>523</v>
@@ -9509,7 +9504,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B266" s="40" t="s">
         <v>525</v>
@@ -9523,7 +9518,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B267" s="40" t="s">
         <v>527</v>
@@ -9537,7 +9532,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B268" s="40" t="s">
         <v>529</v>
@@ -9551,7 +9546,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B269" s="40" t="s">
         <v>531</v>
@@ -9565,7 +9560,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B270" s="40" t="s">
         <v>533</v>
@@ -9579,7 +9574,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B271" s="40" t="s">
         <v>535</v>
@@ -9593,7 +9588,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B272" s="40" t="s">
         <v>537</v>
@@ -9607,7 +9602,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B273" s="40" t="s">
         <v>539</v>
@@ -9621,7 +9616,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B274" s="40" t="s">
         <v>541</v>
@@ -9635,7 +9630,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B275" s="40" t="s">
         <v>543</v>
@@ -9649,7 +9644,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B276" s="40" t="s">
         <v>545</v>
@@ -9663,7 +9658,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B277" s="40" t="s">
         <v>547</v>
@@ -9677,7 +9672,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B278" s="40" t="s">
         <v>549</v>
@@ -9691,7 +9686,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B279" s="40" t="s">
         <v>551</v>
@@ -9705,7 +9700,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B280" s="40" t="s">
         <v>552</v>
@@ -9719,7 +9714,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B281" s="40" t="s">
         <v>554</v>
@@ -9733,7 +9728,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B282" s="40" t="s">
         <v>556</v>
@@ -9747,7 +9742,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B283" s="40" t="s">
         <v>557</v>
@@ -9761,7 +9756,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B284" s="40" t="s">
         <v>559</v>
@@ -9775,7 +9770,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B285" s="40" t="s">
         <v>561</v>
@@ -9789,7 +9784,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B286" s="40" t="s">
         <v>562</v>
@@ -9803,7 +9798,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B287" s="40" t="s">
         <v>564</v>
@@ -9817,7 +9812,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B288" s="40" t="s">
         <v>566</v>
@@ -9831,7 +9826,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B289" s="40" t="s">
         <v>567</v>
@@ -9845,7 +9840,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B290" s="40" t="s">
         <v>569</v>
@@ -9859,7 +9854,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B291" s="40" t="s">
         <v>571</v>
@@ -9873,7 +9868,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B292" s="40" t="s">
         <v>572</v>
@@ -9887,7 +9882,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B293" s="40" t="s">
         <v>574</v>
@@ -9901,7 +9896,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B294" s="40" t="s">
         <v>575</v>
@@ -9915,7 +9910,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B295" s="40" t="s">
         <v>577</v>
@@ -9929,7 +9924,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B296" s="40" t="s">
         <v>578</v>
@@ -9943,7 +9938,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B297" s="40" t="s">
         <v>580</v>
@@ -9957,7 +9952,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B298" s="40" t="s">
         <v>582</v>
@@ -9971,7 +9966,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B299" s="40" t="s">
         <v>584</v>
@@ -9985,7 +9980,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B300" s="40" t="s">
         <v>586</v>
@@ -9999,7 +9994,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B301" s="40" t="s">
         <v>587</v>
@@ -10013,7 +10008,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B302" s="40" t="s">
         <v>589</v>
@@ -10027,7 +10022,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B303" s="40" t="s">
         <v>591</v>
@@ -10041,7 +10036,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B304" s="40" t="s">
         <v>592</v>
@@ -10055,7 +10050,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B305" s="40" t="s">
         <v>594</v>
@@ -10069,7 +10064,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B306" s="40" t="s">
         <v>595</v>
@@ -10083,7 +10078,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B307" s="40" t="s">
         <v>597</v>
@@ -10097,7 +10092,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B308" s="40" t="s">
         <v>599</v>
@@ -10111,7 +10106,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B309" s="40" t="s">
         <v>600</v>
@@ -10125,7 +10120,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B310" s="40" t="s">
         <v>602</v>
@@ -10139,7 +10134,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B311" s="40" t="s">
         <v>604</v>
@@ -10153,7 +10148,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B312" s="61" t="s">
         <v>606</v>
@@ -10167,7 +10162,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B313" s="40" t="s">
         <v>607</v>
@@ -10181,7 +10176,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B314" s="40" t="s">
         <v>609</v>
@@ -10195,7 +10190,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B315" s="40" t="s">
         <v>611</v>
@@ -10209,7 +10204,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B316" s="40" t="s">
         <v>613</v>
@@ -10223,7 +10218,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B317" s="40" t="s">
         <v>615</v>
@@ -10237,7 +10232,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B318" s="40" t="s">
         <v>616</v>
@@ -10251,7 +10246,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B319" s="40" t="s">
         <v>618</v>
@@ -10265,7 +10260,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B320" s="40" t="s">
         <v>620</v>
@@ -10279,7 +10274,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B321" s="40" t="s">
         <v>622</v>
@@ -10293,7 +10288,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B322" s="40" t="s">
         <v>624</v>
@@ -10307,7 +10302,7 @@
     </row>
     <row r="323" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B323" s="41" t="s">
         <v>626</v>
@@ -10323,7 +10318,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B324" s="40" t="s">
         <v>628</v>
@@ -10337,7 +10332,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B325" s="40" t="s">
         <v>630</v>
@@ -10351,7 +10346,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B326" s="40" t="s">
         <v>631</v>
@@ -10365,7 +10360,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B327" s="40" t="s">
         <v>633</v>
@@ -10379,7 +10374,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B328" s="40" t="s">
         <v>635</v>
@@ -10393,7 +10388,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B329" s="40" t="s">
         <v>637</v>
@@ -10407,7 +10402,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B330" s="40" t="s">
         <v>639</v>
@@ -10421,7 +10416,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B331" s="40" t="s">
         <v>641</v>
@@ -10435,7 +10430,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B332" s="40" t="s">
         <v>642</v>
@@ -10449,7 +10444,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B333" s="40" t="s">
         <v>644</v>
@@ -10463,7 +10458,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B334" s="40" t="s">
         <v>645</v>
@@ -10477,7 +10472,7 @@
     </row>
     <row r="335" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B335" s="41" t="s">
         <v>647</v>
@@ -10493,7 +10488,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B336" s="40" t="s">
         <v>649</v>
@@ -10507,7 +10502,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B337" s="40" t="s">
         <v>651</v>
@@ -10521,7 +10516,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B338" s="40" t="s">
         <v>652</v>
@@ -10535,7 +10530,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B339" s="40" t="s">
         <v>654</v>
@@ -10549,7 +10544,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B340" s="40" t="s">
         <v>656</v>
@@ -10563,7 +10558,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B341" s="40" t="s">
         <v>658</v>
@@ -10577,7 +10572,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B342" s="40" t="s">
         <v>659</v>
@@ -10591,7 +10586,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B343" s="40" t="s">
         <v>661</v>
@@ -10605,7 +10600,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B344" s="40" t="s">
         <v>662</v>
@@ -10619,7 +10614,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B345" s="40" t="s">
         <v>664</v>
@@ -10633,7 +10628,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B346" s="40" t="s">
         <v>666</v>
@@ -10647,7 +10642,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B347" s="40" t="s">
         <v>668</v>
@@ -10661,7 +10656,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B348" s="40" t="s">
         <v>670</v>
@@ -10675,7 +10670,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B349" s="40" t="s">
         <v>672</v>
@@ -10689,7 +10684,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B350" s="40" t="s">
         <v>674</v>
@@ -10703,7 +10698,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B351" s="40" t="s">
         <v>676</v>
@@ -10717,7 +10712,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B352" s="40" t="s">
         <v>678</v>
@@ -10731,7 +10726,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B353" s="40" t="s">
         <v>680</v>
@@ -10745,7 +10740,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B354" s="40" t="s">
         <v>682</v>
@@ -10759,7 +10754,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B355" s="40" t="s">
         <v>683</v>
@@ -10773,7 +10768,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B356" s="40" t="s">
         <v>685</v>
@@ -10787,7 +10782,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B357" s="40" t="s">
         <v>687</v>
@@ -10801,7 +10796,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B358" s="40" t="s">
         <v>689</v>
@@ -10815,7 +10810,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B359" s="40" t="s">
         <v>691</v>
@@ -10829,7 +10824,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B360" s="40" t="s">
         <v>693</v>
@@ -10843,7 +10838,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B361" s="40" t="s">
         <v>695</v>
@@ -10857,7 +10852,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B362" s="40" t="s">
         <v>697</v>
@@ -10871,7 +10866,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B363" s="40" t="s">
         <v>699</v>
@@ -10885,7 +10880,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B364" s="40" t="s">
         <v>701</v>
@@ -10899,7 +10894,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B365" s="40" t="s">
         <v>703</v>
@@ -10913,7 +10908,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B366" s="40" t="s">
         <v>705</v>
@@ -10927,7 +10922,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B367" s="40" t="s">
         <v>707</v>
@@ -10941,7 +10936,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B368" s="40" t="s">
         <v>709</v>
@@ -10955,7 +10950,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B369" s="40" t="s">
         <v>710</v>
@@ -10969,7 +10964,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B370" s="40" t="s">
         <v>712</v>
@@ -10983,7 +10978,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B371" s="40" t="s">
         <v>714</v>
@@ -10997,7 +10992,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B372" s="40" t="s">
         <v>716</v>
@@ -11011,7 +11006,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B373" s="40" t="s">
         <v>718</v>
@@ -11025,7 +11020,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B374" s="40" t="s">
         <v>720</v>
@@ -11039,7 +11034,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B375" s="40" t="s">
         <v>722</v>
@@ -11053,7 +11048,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B376" s="40" t="s">
         <v>723</v>
@@ -11067,7 +11062,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B377" s="40" t="s">
         <v>724</v>
@@ -11081,7 +11076,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B378" s="40" t="s">
         <v>725</v>
@@ -11095,7 +11090,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B379" s="40" t="s">
         <v>727</v>
@@ -11109,7 +11104,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B380" s="40" t="s">
         <v>729</v>
@@ -11123,7 +11118,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B381" s="40" t="s">
         <v>731</v>
@@ -11137,7 +11132,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B382" s="40" t="s">
         <v>733</v>
@@ -11151,7 +11146,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B383" s="40" t="s">
         <v>735</v>
@@ -11165,7 +11160,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B384" s="40" t="s">
         <v>736</v>
@@ -11179,7 +11174,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B385" s="40" t="s">
         <v>738</v>
@@ -11193,7 +11188,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B386" s="40" t="s">
         <v>740</v>
@@ -11207,7 +11202,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B387" s="40" t="s">
         <v>742</v>
@@ -11221,7 +11216,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B388" s="40" t="s">
         <v>744</v>
@@ -11235,7 +11230,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B389" s="40" t="s">
         <v>746</v>
@@ -11249,7 +11244,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B390" s="40" t="s">
         <v>748</v>
@@ -11263,7 +11258,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B391" s="40" t="s">
         <v>749</v>
@@ -11277,7 +11272,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B392" s="40" t="s">
         <v>751</v>
@@ -11291,7 +11286,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B393" s="40" t="s">
         <v>753</v>
@@ -11305,7 +11300,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B394" s="40" t="s">
         <v>755</v>
@@ -11319,7 +11314,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B395" s="40" t="s">
         <v>757</v>
@@ -11333,7 +11328,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B396" s="40" t="s">
         <v>758</v>
@@ -11347,7 +11342,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B397" s="40" t="s">
         <v>760</v>
@@ -11361,7 +11356,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B398" s="40" t="s">
         <v>761</v>
@@ -11375,7 +11370,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B399" s="40" t="s">
         <v>763</v>
@@ -11389,7 +11384,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B400" s="40" t="s">
         <v>765</v>
@@ -11403,7 +11398,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B401" s="40" t="s">
         <v>767</v>
@@ -11417,7 +11412,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B402" s="40" t="s">
         <v>769</v>
@@ -11431,7 +11426,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B403" s="40" t="s">
         <v>771</v>
@@ -11445,7 +11440,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B404" s="40" t="s">
         <v>773</v>
@@ -11459,7 +11454,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B405" s="40" t="s">
         <v>775</v>
@@ -11473,7 +11468,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B406" s="40" t="s">
         <v>777</v>
@@ -11487,7 +11482,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B407" s="40" t="s">
         <v>778</v>
@@ -11501,7 +11496,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B408" s="40" t="s">
         <v>779</v>
@@ -11515,7 +11510,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B409" s="40" t="s">
         <v>781</v>
@@ -11529,7 +11524,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B410" s="40" t="s">
         <v>783</v>
@@ -11543,7 +11538,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B411" s="40" t="s">
         <v>785</v>
@@ -11557,7 +11552,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B412" s="40" t="s">
         <v>787</v>
@@ -11571,7 +11566,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B413" s="40" t="s">
         <v>789</v>
@@ -11585,7 +11580,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B414" s="40" t="s">
         <v>791</v>
@@ -11599,7 +11594,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B415" s="40" t="s">
         <v>792</v>
@@ -11613,7 +11608,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B416" s="40" t="s">
         <v>794</v>
@@ -11627,7 +11622,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B417" s="40" t="s">
         <v>795</v>
@@ -11641,7 +11636,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B418" s="40" t="s">
         <v>796</v>
@@ -11655,7 +11650,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B419" s="40" t="s">
         <v>798</v>
@@ -11669,7 +11664,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B420" s="40" t="s">
         <v>800</v>
@@ -11683,7 +11678,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B421" s="40" t="s">
         <v>801</v>
@@ -11697,7 +11692,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B422" s="40" t="s">
         <v>803</v>
@@ -11711,7 +11706,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B423" s="40" t="s">
         <v>805</v>
@@ -11725,7 +11720,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B424" s="40" t="s">
         <v>807</v>
@@ -11739,7 +11734,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B425" s="40" t="s">
         <v>809</v>
@@ -11753,7 +11748,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B426" s="40" t="s">
         <v>810</v>
@@ -11767,7 +11762,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B427" s="40" t="s">
         <v>812</v>
@@ -11781,7 +11776,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B428" s="40" t="s">
         <v>814</v>
@@ -11795,7 +11790,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B429" s="40" t="s">
         <v>816</v>
@@ -11809,7 +11804,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B430" s="40" t="s">
         <v>817</v>
@@ -11823,7 +11818,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B431" s="40" t="s">
         <v>819</v>
@@ -11837,7 +11832,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B432" s="40" t="s">
         <v>820</v>
@@ -11851,7 +11846,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B433" s="40" t="s">
         <v>821</v>
@@ -11865,7 +11860,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B434" s="40" t="s">
         <v>823</v>
@@ -11879,7 +11874,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B435" s="40" t="s">
         <v>824</v>
@@ -11893,7 +11888,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B436" s="40" t="s">
         <v>826</v>
@@ -11907,7 +11902,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B437" s="40" t="s">
         <v>828</v>
@@ -11921,7 +11916,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B438" s="40" t="s">
         <v>829</v>
@@ -11935,7 +11930,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B439" s="40" t="s">
         <v>831</v>
@@ -11949,7 +11944,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B440" s="40" t="s">
         <v>832</v>
@@ -11963,7 +11958,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B441" s="40" t="s">
         <v>834</v>
@@ -11977,7 +11972,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B442" s="40" t="s">
         <v>835</v>
@@ -11991,7 +11986,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B443" s="40" t="s">
         <v>837</v>
@@ -12005,7 +12000,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B444" s="40" t="s">
         <v>838</v>
@@ -12019,7 +12014,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B445" s="40" t="s">
         <v>840</v>
@@ -12033,7 +12028,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B446" s="40" t="s">
         <v>842</v>
@@ -12047,7 +12042,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B447" s="40" t="s">
         <v>843</v>
@@ -12061,7 +12056,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B448" s="40" t="s">
         <v>844</v>
@@ -12075,7 +12070,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B449" s="40" t="s">
         <v>846</v>
@@ -12089,7 +12084,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B450" s="40" t="s">
         <v>847</v>
@@ -12103,7 +12098,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B451" s="40" t="s">
         <v>849</v>
@@ -12117,7 +12112,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B452" s="40" t="s">
         <v>850</v>
@@ -12131,7 +12126,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B453" s="40" t="s">
         <v>852</v>
@@ -12145,7 +12140,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B454" s="40" t="s">
         <v>853</v>
@@ -12159,7 +12154,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B455" s="40" t="s">
         <v>855</v>
@@ -12173,7 +12168,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B456" s="40" t="s">
         <v>856</v>
@@ -12187,7 +12182,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B457" s="40" t="s">
         <v>858</v>
@@ -12201,7 +12196,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B458" s="40" t="s">
         <v>860</v>
@@ -12215,7 +12210,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B459" s="40" t="s">
         <v>861</v>
@@ -12229,7 +12224,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B460" s="40" t="s">
         <v>863</v>
@@ -12243,7 +12238,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B461" s="40" t="s">
         <v>864</v>
@@ -12257,7 +12252,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B462" s="40" t="s">
         <v>866</v>
@@ -12271,7 +12266,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B463" s="40" t="s">
         <v>867</v>
@@ -12285,7 +12280,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B464" s="40" t="s">
         <v>869</v>
@@ -12299,7 +12294,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B465" s="40" t="s">
         <v>871</v>
@@ -12313,7 +12308,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B466" s="40" t="s">
         <v>872</v>
@@ -12327,7 +12322,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B467" s="40" t="s">
         <v>874</v>
@@ -12341,7 +12336,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B468" s="40" t="s">
         <v>876</v>
@@ -12355,7 +12350,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B469" s="40" t="s">
         <v>878</v>
@@ -12369,7 +12364,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B470" s="40" t="s">
         <v>880</v>
@@ -12383,7 +12378,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B471" s="40" t="s">
         <v>882</v>
@@ -12397,7 +12392,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B472" s="40" t="s">
         <v>884</v>
@@ -12411,7 +12406,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B473" s="40" t="s">
         <v>886</v>
@@ -12425,7 +12420,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B474" s="40" t="s">
         <v>888</v>
@@ -12439,7 +12434,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B475" s="40" t="s">
         <v>890</v>
@@ -12453,7 +12448,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B476" s="40" t="s">
         <v>892</v>
@@ -12467,7 +12462,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B477" s="40" t="s">
         <v>894</v>
@@ -12481,7 +12476,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B478" s="40" t="s">
         <v>896</v>
@@ -12495,7 +12490,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B479" s="40" t="s">
         <v>898</v>
@@ -12509,7 +12504,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B480" s="40" t="s">
         <v>900</v>
@@ -12523,7 +12518,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B481" s="40" t="s">
         <v>901</v>
@@ -12537,7 +12532,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B482" s="40" t="s">
         <v>903</v>
@@ -12551,7 +12546,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B483" s="40" t="s">
         <v>905</v>
@@ -12565,7 +12560,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B484" s="40" t="s">
         <v>906</v>
@@ -12579,7 +12574,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B485" s="40" t="s">
         <v>908</v>
@@ -12593,7 +12588,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B486" s="40" t="s">
         <v>910</v>
@@ -12607,7 +12602,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B487" s="40" t="s">
         <v>912</v>
@@ -12621,7 +12616,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B488" s="40" t="s">
         <v>914</v>
@@ -12635,7 +12630,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B489" s="40" t="s">
         <v>916</v>
@@ -12649,7 +12644,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B490" s="40" t="s">
         <v>918</v>
@@ -12663,7 +12658,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B491" s="40" t="s">
         <v>920</v>
@@ -12677,7 +12672,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B492" s="40" t="s">
         <v>922</v>
@@ -12691,7 +12686,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B493" s="40" t="s">
         <v>923</v>
@@ -12705,7 +12700,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B494" s="40" t="s">
         <v>925</v>
@@ -12719,7 +12714,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B495" s="40" t="s">
         <v>927</v>
@@ -12733,7 +12728,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B496" s="40" t="s">
         <v>929</v>
@@ -12747,7 +12742,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B497" s="40" t="s">
         <v>931</v>
@@ -12761,7 +12756,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B498" s="40" t="s">
         <v>933</v>
@@ -12775,7 +12770,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B499" s="40" t="s">
         <v>935</v>
@@ -12789,7 +12784,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B500" s="40" t="s">
         <v>937</v>
@@ -12803,7 +12798,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B501" s="40" t="s">
         <v>939</v>
@@ -12817,7 +12812,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B502" s="40" t="s">
         <v>941</v>
@@ -12831,7 +12826,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B503" s="40" t="s">
         <v>942</v>
@@ -12845,7 +12840,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B504" s="40" t="s">
         <v>944</v>
@@ -12859,7 +12854,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B505" s="40" t="s">
         <v>945</v>
@@ -12873,7 +12868,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B506" s="40" t="s">
         <v>947</v>
@@ -12887,7 +12882,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B507" s="40" t="s">
         <v>949</v>
@@ -12901,7 +12896,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B508" s="40" t="s">
         <v>951</v>
@@ -12915,7 +12910,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B509" s="40" t="s">
         <v>953</v>
@@ -12929,7 +12924,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B510" s="40" t="s">
         <v>955</v>
@@ -12943,7 +12938,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B511" s="40" t="s">
         <v>956</v>
@@ -12957,7 +12952,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B512" s="40" t="s">
         <v>958</v>
@@ -12971,7 +12966,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B513" s="40" t="s">
         <v>959</v>
@@ -12985,7 +12980,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B514" s="40" t="s">
         <v>961</v>
@@ -12999,7 +12994,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B515" s="40" t="s">
         <v>963</v>
@@ -13013,7 +13008,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B516" s="40" t="s">
         <v>965</v>
@@ -13027,7 +13022,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B517" s="40" t="s">
         <v>967</v>
@@ -13041,7 +13036,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B518" s="40" t="s">
         <v>968</v>
@@ -13055,7 +13050,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B519" s="40" t="s">
         <v>970</v>
@@ -13069,7 +13064,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B520" s="40" t="s">
         <v>972</v>
@@ -13083,7 +13078,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B521" s="40" t="s">
         <v>974</v>
@@ -13097,7 +13092,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B522" s="40" t="s">
         <v>976</v>
@@ -13111,7 +13106,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B523" s="40" t="s">
         <v>978</v>
@@ -13125,7 +13120,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B524" s="40" t="s">
         <v>979</v>
@@ -13139,7 +13134,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B525" s="40" t="s">
         <v>981</v>
@@ -13153,7 +13148,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B526" s="40" t="s">
         <v>983</v>
@@ -13167,7 +13162,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B527" s="40" t="s">
         <v>985</v>
@@ -13181,7 +13176,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B528" s="40" t="s">
         <v>987</v>
@@ -13195,7 +13190,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B529" s="40" t="s">
         <v>989</v>
@@ -13209,7 +13204,7 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B530" s="40" t="s">
         <v>991</v>
@@ -13223,7 +13218,7 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B531" s="40" t="s">
         <v>992</v>
@@ -13237,7 +13232,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B532" s="40" t="s">
         <v>994</v>
@@ -13251,7 +13246,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B533" s="40" t="s">
         <v>996</v>
@@ -13265,7 +13260,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B534" s="40" t="s">
         <v>998</v>
@@ -13279,7 +13274,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B535" s="40" t="s">
         <v>999</v>
@@ -13298,13 +13293,13 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="54" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B537" s="32" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C537" s="62" t="s">
         <v>1106</v>
-      </c>
-      <c r="C537" s="62" t="s">
-        <v>1109</v>
       </c>
       <c r="F537" s="32" t="s">
         <v>606</v>
@@ -13313,13 +13308,13 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="54" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B538" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C538" s="62" t="s">
         <v>1107</v>
-      </c>
-      <c r="C538" s="62" t="s">
-        <v>1110</v>
       </c>
       <c r="F538" s="32" t="s">
         <v>606</v>
@@ -13328,13 +13323,13 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="54" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B539" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C539" s="62" t="s">
         <v>1108</v>
-      </c>
-      <c r="C539" s="62" t="s">
-        <v>1111</v>
       </c>
       <c r="F539" s="32" t="s">
         <v>606</v>
@@ -30775,16 +30770,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C2" s="58">
         <v>201902271</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>

--- a/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
+++ b/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_B_lideres\ILRG_ORAM_B_lideres-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_B_lideres\ILRG_ORAM_B_lideres-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4955E6A-D07B-4356-85F2-4E1A20A43619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B4CCE-4DB5-4B67-9926-3B2F3EFB4612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3109,9 +3109,6 @@
     <t>Invalida - as respostas nesta pagina não podiam incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
   </si>
   <si>
-    <t>chief_contact</t>
-  </si>
-  <si>
     <t>numbers</t>
   </si>
   <si>
@@ -3272,12 +3269,6 @@
   </si>
   <si>
     <t>Bg3</t>
-  </si>
-  <si>
-    <t>chief_family_name</t>
-  </si>
-  <si>
-    <t>chief_given_name</t>
   </si>
   <si>
     <t>tec_given_name</t>
@@ -3376,14 +3367,30 @@
   <si>
     <t>oram_USAID.jpg</t>
   </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>given_name</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3595,389 +3602,392 @@
   </borders>
   <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="236" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="236"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4556,10 +4566,10 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4639,24 +4649,24 @@
     </row>
     <row r="4" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>1045</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>1046</v>
-      </c>
       <c r="M5" s="50" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4664,11 +4674,11 @@
         <v>22</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="50" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4676,10 +4686,10 @@
         <v>33</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="N7" s="66" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4687,10 +4697,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4707,7 +4717,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4715,10 +4725,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>21</v>
@@ -4732,16 +4742,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>1075</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>1076</v>
-      </c>
       <c r="L12" s="50" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -4749,10 +4759,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>1025</v>
@@ -4766,10 +4776,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>1025</v>
@@ -4840,10 +4850,10 @@
     </row>
     <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>1006</v>
@@ -4860,16 +4870,16 @@
     </row>
     <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>1009</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>21</v>
@@ -4883,10 +4893,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4897,10 +4907,10 @@
         <v>1024</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>1025</v>
@@ -4916,11 +4926,11 @@
       <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>1082</v>
+      <c r="B23" s="67" t="s">
+        <v>1112</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>1025</v>
@@ -4936,11 +4946,11 @@
       <c r="A24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>1083</v>
+      <c r="B24" s="67" t="s">
+        <v>1113</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>1025</v>
@@ -4956,14 +4966,14 @@
       <c r="A25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="67" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L25" s="20" t="s">
         <v>1027</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4977,13 +4987,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>1034</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>1035</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>21</v>
@@ -4994,10 +5004,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5005,10 +5015,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5016,10 +5026,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>30</v>
@@ -5105,10 +5115,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="48" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>1047</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>1048</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
@@ -5119,7 +5129,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>41</v>
@@ -5133,10 +5143,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="48" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>1050</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>1051</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="24"/>
@@ -5147,10 +5157,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="48" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>1052</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>1053</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
@@ -5161,10 +5171,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>1054</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>1055</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
@@ -5175,10 +5185,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>1056</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>1057</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
@@ -5189,10 +5199,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -5203,10 +5213,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="48" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>1059</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1060</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
@@ -5217,10 +5227,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>1061</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>1062</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -5231,10 +5241,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="48" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>1063</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>1064</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="24"/>
@@ -5245,10 +5255,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="24"/>
@@ -5259,10 +5269,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="48" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>1066</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1067</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="24"/>
@@ -5273,7 +5283,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>35</v>
@@ -5443,10 +5453,10 @@
         <v>43</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6691,7 +6701,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>648</v>
@@ -6708,7 +6718,7 @@
         <v>65</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>627</v>
@@ -6725,7 +6735,7 @@
         <v>65</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>634</v>
@@ -6742,7 +6752,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>608</v>
@@ -6759,10 +6769,10 @@
         <v>65</v>
       </c>
       <c r="B83" s="40" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C83" s="33" t="s">
         <v>1042</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>1043</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>53</v>
@@ -6776,7 +6786,7 @@
         <v>65</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>596</v>
@@ -7866,7 +7876,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B149" s="61" t="s">
         <v>325</v>
@@ -7880,7 +7890,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B150" s="40" t="s">
         <v>327</v>
@@ -7894,7 +7904,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B151" s="40" t="s">
         <v>329</v>
@@ -7908,7 +7918,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B152" s="40" t="s">
         <v>331</v>
@@ -7922,7 +7932,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B153" s="57" t="s">
         <v>333</v>
@@ -7936,7 +7946,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B154" s="40" t="s">
         <v>335</v>
@@ -7950,7 +7960,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B155" s="40" t="s">
         <v>337</v>
@@ -7964,7 +7974,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B156" s="40" t="s">
         <v>339</v>
@@ -7978,7 +7988,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B157" s="40" t="s">
         <v>341</v>
@@ -7992,7 +8002,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B158" s="40" t="s">
         <v>343</v>
@@ -8006,7 +8016,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B159" s="40" t="s">
         <v>344</v>
@@ -8020,7 +8030,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B160" s="40" t="s">
         <v>346</v>
@@ -8034,7 +8044,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B161" s="40" t="s">
         <v>348</v>
@@ -8048,7 +8058,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B162" s="40" t="s">
         <v>349</v>
@@ -8062,7 +8072,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B163" s="40" t="s">
         <v>351</v>
@@ -8076,7 +8086,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B164" s="40" t="s">
         <v>352</v>
@@ -8090,7 +8100,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B165" s="40" t="s">
         <v>354</v>
@@ -8104,7 +8114,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B166" s="40" t="s">
         <v>356</v>
@@ -8118,7 +8128,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B167" s="40" t="s">
         <v>357</v>
@@ -8132,7 +8142,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B168" s="40" t="s">
         <v>359</v>
@@ -8146,7 +8156,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B169" s="40" t="s">
         <v>360</v>
@@ -8160,7 +8170,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B170" s="40" t="s">
         <v>362</v>
@@ -8174,7 +8184,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>363</v>
@@ -8188,7 +8198,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B172" s="40" t="s">
         <v>364</v>
@@ -8202,7 +8212,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B173" s="40" t="s">
         <v>365</v>
@@ -8216,7 +8226,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B174" s="40" t="s">
         <v>367</v>
@@ -8230,7 +8240,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B175" s="40" t="s">
         <v>368</v>
@@ -8244,7 +8254,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>370</v>
@@ -8258,7 +8268,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B177" s="40" t="s">
         <v>371</v>
@@ -8272,7 +8282,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B178" s="40" t="s">
         <v>373</v>
@@ -8286,7 +8296,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B179" s="40" t="s">
         <v>375</v>
@@ -8300,7 +8310,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B180" s="57" t="s">
         <v>377</v>
@@ -8314,7 +8324,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B181" s="40" t="s">
         <v>378</v>
@@ -8328,7 +8338,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B182" s="40" t="s">
         <v>380</v>
@@ -8342,7 +8352,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B183" s="40" t="s">
         <v>381</v>
@@ -8356,7 +8366,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B184" s="40" t="s">
         <v>383</v>
@@ -8370,7 +8380,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B185" s="40" t="s">
         <v>385</v>
@@ -8384,7 +8394,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B186" s="40" t="s">
         <v>387</v>
@@ -8398,7 +8408,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B187" s="40" t="s">
         <v>388</v>
@@ -8412,7 +8422,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B188" s="40" t="s">
         <v>390</v>
@@ -8426,7 +8436,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B189" s="40" t="s">
         <v>392</v>
@@ -8440,7 +8450,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B190" s="40" t="s">
         <v>393</v>
@@ -8454,7 +8464,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B191" s="40" t="s">
         <v>395</v>
@@ -8468,7 +8478,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B192" s="40" t="s">
         <v>397</v>
@@ -8482,7 +8492,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B193" s="40" t="s">
         <v>399</v>
@@ -8496,7 +8506,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B194" s="40" t="s">
         <v>400</v>
@@ -8510,7 +8520,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B195" s="40" t="s">
         <v>402</v>
@@ -8524,7 +8534,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B196" s="40" t="s">
         <v>404</v>
@@ -8538,7 +8548,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B197" s="40" t="s">
         <v>406</v>
@@ -8552,7 +8562,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B198" s="40" t="s">
         <v>408</v>
@@ -8566,7 +8576,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B199" s="40" t="s">
         <v>410</v>
@@ -8580,7 +8590,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B200" s="40" t="s">
         <v>411</v>
@@ -8594,7 +8604,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B201" s="40" t="s">
         <v>413</v>
@@ -8608,7 +8618,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B202" s="40" t="s">
         <v>414</v>
@@ -8622,7 +8632,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B203" s="40" t="s">
         <v>416</v>
@@ -8636,7 +8646,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B204" s="40" t="s">
         <v>418</v>
@@ -8650,7 +8660,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B205" s="40" t="s">
         <v>420</v>
@@ -8664,7 +8674,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B206" s="40" t="s">
         <v>421</v>
@@ -8678,7 +8688,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B207" s="40" t="s">
         <v>423</v>
@@ -8692,7 +8702,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B208" s="40" t="s">
         <v>424</v>
@@ -8706,7 +8716,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B209" s="40" t="s">
         <v>426</v>
@@ -8720,7 +8730,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B210" s="40" t="s">
         <v>428</v>
@@ -8734,7 +8744,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B211" s="40" t="s">
         <v>430</v>
@@ -8748,7 +8758,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B212" s="40" t="s">
         <v>432</v>
@@ -8762,7 +8772,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B213" s="40" t="s">
         <v>434</v>
@@ -8776,7 +8786,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B214" s="40" t="s">
         <v>436</v>
@@ -8790,7 +8800,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B215" s="40" t="s">
         <v>438</v>
@@ -8804,7 +8814,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B216" s="40" t="s">
         <v>440</v>
@@ -8818,7 +8828,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B217" s="40" t="s">
         <v>441</v>
@@ -8832,7 +8842,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B218" s="40" t="s">
         <v>443</v>
@@ -8846,7 +8856,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B219" s="40" t="s">
         <v>445</v>
@@ -8860,7 +8870,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B220" s="40" t="s">
         <v>447</v>
@@ -8874,7 +8884,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B221" s="40" t="s">
         <v>448</v>
@@ -8888,7 +8898,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B222" s="40" t="s">
         <v>449</v>
@@ -8902,7 +8912,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B223" s="40" t="s">
         <v>451</v>
@@ -8916,7 +8926,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B224" s="40" t="s">
         <v>453</v>
@@ -8930,7 +8940,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>454</v>
@@ -8944,7 +8954,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B226" s="40" t="s">
         <v>456</v>
@@ -8958,7 +8968,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B227" s="57" t="s">
         <v>458</v>
@@ -8972,7 +8982,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B228" s="57" t="s">
         <v>460</v>
@@ -8986,7 +8996,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B229" s="40" t="s">
         <v>462</v>
@@ -9000,7 +9010,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B230" s="40" t="s">
         <v>464</v>
@@ -9014,7 +9024,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B231" s="40" t="s">
         <v>465</v>
@@ -9028,7 +9038,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B232" s="40" t="s">
         <v>467</v>
@@ -9042,7 +9052,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B233" s="40" t="s">
         <v>468</v>
@@ -9056,7 +9066,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B234" s="40" t="s">
         <v>470</v>
@@ -9070,7 +9080,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B235" s="40" t="s">
         <v>472</v>
@@ -9084,7 +9094,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B236" s="40" t="s">
         <v>474</v>
@@ -9098,7 +9108,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B237" s="40" t="s">
         <v>476</v>
@@ -9112,7 +9122,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B238" s="40" t="s">
         <v>478</v>
@@ -9126,7 +9136,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B239" s="40" t="s">
         <v>479</v>
@@ -9140,7 +9150,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B240" s="40" t="s">
         <v>481</v>
@@ -9154,7 +9164,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B241" s="40" t="s">
         <v>483</v>
@@ -9168,7 +9178,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B242" s="40" t="s">
         <v>485</v>
@@ -9182,7 +9192,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B243" s="40" t="s">
         <v>487</v>
@@ -9196,7 +9206,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B244" s="40" t="s">
         <v>488</v>
@@ -9210,7 +9220,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B245" s="40" t="s">
         <v>489</v>
@@ -9224,7 +9234,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B246" s="40" t="s">
         <v>491</v>
@@ -9238,7 +9248,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B247" s="40" t="s">
         <v>493</v>
@@ -9252,7 +9262,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B248" s="40" t="s">
         <v>495</v>
@@ -9266,7 +9276,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B249" s="40" t="s">
         <v>496</v>
@@ -9280,7 +9290,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B250" s="40" t="s">
         <v>498</v>
@@ -9294,7 +9304,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B251" s="40" t="s">
         <v>499</v>
@@ -9308,7 +9318,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B252" s="40" t="s">
         <v>501</v>
@@ -9322,7 +9332,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B253" s="40" t="s">
         <v>503</v>
@@ -9336,7 +9346,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B254" s="40" t="s">
         <v>504</v>
@@ -9350,7 +9360,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B255" s="40" t="s">
         <v>506</v>
@@ -9364,7 +9374,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B256" s="40" t="s">
         <v>508</v>
@@ -9378,7 +9388,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B257" s="40" t="s">
         <v>510</v>
@@ -9392,7 +9402,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B258" s="40" t="s">
         <v>511</v>
@@ -9406,7 +9416,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B259" s="40" t="s">
         <v>513</v>
@@ -9420,7 +9430,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B260" s="40" t="s">
         <v>515</v>
@@ -9434,7 +9444,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B261" s="40" t="s">
         <v>517</v>
@@ -9448,7 +9458,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B262" s="40" t="s">
         <v>518</v>
@@ -9462,7 +9472,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B263" s="40" t="s">
         <v>520</v>
@@ -9476,7 +9486,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B264" s="40" t="s">
         <v>521</v>
@@ -9490,7 +9500,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B265" s="40" t="s">
         <v>523</v>
@@ -9504,7 +9514,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B266" s="40" t="s">
         <v>525</v>
@@ -9518,7 +9528,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B267" s="40" t="s">
         <v>527</v>
@@ -9532,7 +9542,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B268" s="40" t="s">
         <v>529</v>
@@ -9546,7 +9556,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B269" s="40" t="s">
         <v>531</v>
@@ -9560,7 +9570,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B270" s="40" t="s">
         <v>533</v>
@@ -9574,7 +9584,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B271" s="40" t="s">
         <v>535</v>
@@ -9588,7 +9598,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B272" s="40" t="s">
         <v>537</v>
@@ -9602,7 +9612,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B273" s="40" t="s">
         <v>539</v>
@@ -9616,7 +9626,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B274" s="40" t="s">
         <v>541</v>
@@ -9630,7 +9640,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B275" s="40" t="s">
         <v>543</v>
@@ -9644,7 +9654,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B276" s="40" t="s">
         <v>545</v>
@@ -9658,7 +9668,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B277" s="40" t="s">
         <v>547</v>
@@ -9672,7 +9682,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B278" s="40" t="s">
         <v>549</v>
@@ -9686,7 +9696,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B279" s="40" t="s">
         <v>551</v>
@@ -9700,7 +9710,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B280" s="40" t="s">
         <v>552</v>
@@ -9714,7 +9724,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B281" s="40" t="s">
         <v>554</v>
@@ -9728,7 +9738,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B282" s="40" t="s">
         <v>556</v>
@@ -9742,7 +9752,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B283" s="40" t="s">
         <v>557</v>
@@ -9756,7 +9766,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B284" s="40" t="s">
         <v>559</v>
@@ -9770,7 +9780,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B285" s="40" t="s">
         <v>561</v>
@@ -9784,7 +9794,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B286" s="40" t="s">
         <v>562</v>
@@ -9798,7 +9808,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B287" s="40" t="s">
         <v>564</v>
@@ -9812,7 +9822,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B288" s="40" t="s">
         <v>566</v>
@@ -9826,7 +9836,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B289" s="40" t="s">
         <v>567</v>
@@ -9840,7 +9850,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B290" s="40" t="s">
         <v>569</v>
@@ -9854,7 +9864,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B291" s="40" t="s">
         <v>571</v>
@@ -9868,7 +9878,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B292" s="40" t="s">
         <v>572</v>
@@ -9882,7 +9892,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B293" s="40" t="s">
         <v>574</v>
@@ -9896,7 +9906,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B294" s="40" t="s">
         <v>575</v>
@@ -9910,7 +9920,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B295" s="40" t="s">
         <v>577</v>
@@ -9924,7 +9934,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B296" s="40" t="s">
         <v>578</v>
@@ -9938,7 +9948,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B297" s="40" t="s">
         <v>580</v>
@@ -9952,7 +9962,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B298" s="40" t="s">
         <v>582</v>
@@ -9966,7 +9976,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B299" s="40" t="s">
         <v>584</v>
@@ -9980,7 +9990,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B300" s="40" t="s">
         <v>586</v>
@@ -9994,7 +10004,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B301" s="40" t="s">
         <v>587</v>
@@ -10008,7 +10018,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B302" s="40" t="s">
         <v>589</v>
@@ -10022,7 +10032,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B303" s="40" t="s">
         <v>591</v>
@@ -10036,7 +10046,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B304" s="40" t="s">
         <v>592</v>
@@ -10050,7 +10060,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B305" s="40" t="s">
         <v>594</v>
@@ -10064,7 +10074,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B306" s="40" t="s">
         <v>595</v>
@@ -10073,12 +10083,12 @@
         <v>596</v>
       </c>
       <c r="E306" s="32" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B307" s="40" t="s">
         <v>597</v>
@@ -10092,7 +10102,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B308" s="40" t="s">
         <v>599</v>
@@ -10106,7 +10116,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B309" s="40" t="s">
         <v>600</v>
@@ -10120,7 +10130,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B310" s="40" t="s">
         <v>602</v>
@@ -10134,7 +10144,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B311" s="40" t="s">
         <v>604</v>
@@ -10148,7 +10158,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B312" s="61" t="s">
         <v>606</v>
@@ -10162,7 +10172,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B313" s="40" t="s">
         <v>607</v>
@@ -10171,12 +10181,12 @@
         <v>608</v>
       </c>
       <c r="E313" s="32" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B314" s="40" t="s">
         <v>609</v>
@@ -10190,7 +10200,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B315" s="40" t="s">
         <v>611</v>
@@ -10204,7 +10214,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B316" s="40" t="s">
         <v>613</v>
@@ -10218,7 +10228,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B317" s="40" t="s">
         <v>615</v>
@@ -10232,7 +10242,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B318" s="40" t="s">
         <v>616</v>
@@ -10246,7 +10256,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B319" s="40" t="s">
         <v>618</v>
@@ -10260,7 +10270,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B320" s="40" t="s">
         <v>620</v>
@@ -10274,7 +10284,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B321" s="40" t="s">
         <v>622</v>
@@ -10288,7 +10298,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B322" s="40" t="s">
         <v>624</v>
@@ -10302,7 +10312,7 @@
     </row>
     <row r="323" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B323" s="41" t="s">
         <v>626</v>
@@ -10312,13 +10322,13 @@
       </c>
       <c r="D323" s="38"/>
       <c r="E323" s="38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F323" s="38"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B324" s="40" t="s">
         <v>628</v>
@@ -10332,7 +10342,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B325" s="40" t="s">
         <v>630</v>
@@ -10346,7 +10356,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B326" s="40" t="s">
         <v>631</v>
@@ -10360,7 +10370,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B327" s="40" t="s">
         <v>633</v>
@@ -10369,12 +10379,12 @@
         <v>634</v>
       </c>
       <c r="E327" s="32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B328" s="40" t="s">
         <v>635</v>
@@ -10388,7 +10398,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B329" s="40" t="s">
         <v>637</v>
@@ -10402,7 +10412,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B330" s="40" t="s">
         <v>639</v>
@@ -10416,7 +10426,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B331" s="40" t="s">
         <v>641</v>
@@ -10430,7 +10440,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B332" s="40" t="s">
         <v>642</v>
@@ -10444,7 +10454,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B333" s="40" t="s">
         <v>644</v>
@@ -10458,7 +10468,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B334" s="40" t="s">
         <v>645</v>
@@ -10472,7 +10482,7 @@
     </row>
     <row r="335" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B335" s="41" t="s">
         <v>647</v>
@@ -10482,13 +10492,13 @@
       </c>
       <c r="D335" s="38"/>
       <c r="E335" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F335" s="38"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B336" s="40" t="s">
         <v>649</v>
@@ -10502,7 +10512,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B337" s="40" t="s">
         <v>651</v>
@@ -10516,7 +10526,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B338" s="40" t="s">
         <v>652</v>
@@ -10530,7 +10540,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B339" s="40" t="s">
         <v>654</v>
@@ -10544,7 +10554,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B340" s="40" t="s">
         <v>656</v>
@@ -10558,7 +10568,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B341" s="40" t="s">
         <v>658</v>
@@ -10572,7 +10582,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B342" s="40" t="s">
         <v>659</v>
@@ -10586,7 +10596,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B343" s="40" t="s">
         <v>661</v>
@@ -10600,7 +10610,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B344" s="40" t="s">
         <v>662</v>
@@ -10614,7 +10624,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B345" s="40" t="s">
         <v>664</v>
@@ -10628,7 +10638,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B346" s="40" t="s">
         <v>666</v>
@@ -10642,7 +10652,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B347" s="40" t="s">
         <v>668</v>
@@ -10656,7 +10666,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B348" s="40" t="s">
         <v>670</v>
@@ -10670,7 +10680,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B349" s="40" t="s">
         <v>672</v>
@@ -10684,7 +10694,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B350" s="40" t="s">
         <v>674</v>
@@ -10698,7 +10708,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B351" s="40" t="s">
         <v>676</v>
@@ -10712,7 +10722,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B352" s="40" t="s">
         <v>678</v>
@@ -10726,7 +10736,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B353" s="40" t="s">
         <v>680</v>
@@ -10740,7 +10750,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B354" s="40" t="s">
         <v>682</v>
@@ -10754,7 +10764,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B355" s="40" t="s">
         <v>683</v>
@@ -10768,7 +10778,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B356" s="40" t="s">
         <v>685</v>
@@ -10782,7 +10792,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B357" s="40" t="s">
         <v>687</v>
@@ -10796,7 +10806,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B358" s="40" t="s">
         <v>689</v>
@@ -10810,7 +10820,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B359" s="40" t="s">
         <v>691</v>
@@ -10824,7 +10834,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B360" s="40" t="s">
         <v>693</v>
@@ -10838,7 +10848,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B361" s="40" t="s">
         <v>695</v>
@@ -10852,7 +10862,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B362" s="40" t="s">
         <v>697</v>
@@ -10866,7 +10876,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B363" s="40" t="s">
         <v>699</v>
@@ -10880,7 +10890,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B364" s="40" t="s">
         <v>701</v>
@@ -10894,7 +10904,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B365" s="40" t="s">
         <v>703</v>
@@ -10908,7 +10918,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B366" s="40" t="s">
         <v>705</v>
@@ -10922,7 +10932,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B367" s="40" t="s">
         <v>707</v>
@@ -10936,7 +10946,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B368" s="40" t="s">
         <v>709</v>
@@ -10950,7 +10960,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B369" s="40" t="s">
         <v>710</v>
@@ -10964,7 +10974,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B370" s="40" t="s">
         <v>712</v>
@@ -10978,7 +10988,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B371" s="40" t="s">
         <v>714</v>
@@ -10992,7 +11002,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B372" s="40" t="s">
         <v>716</v>
@@ -11006,7 +11016,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B373" s="40" t="s">
         <v>718</v>
@@ -11020,7 +11030,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B374" s="40" t="s">
         <v>720</v>
@@ -11034,7 +11044,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B375" s="40" t="s">
         <v>722</v>
@@ -11048,7 +11058,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B376" s="40" t="s">
         <v>723</v>
@@ -11062,7 +11072,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B377" s="40" t="s">
         <v>724</v>
@@ -11076,7 +11086,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B378" s="40" t="s">
         <v>725</v>
@@ -11090,7 +11100,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B379" s="40" t="s">
         <v>727</v>
@@ -11104,7 +11114,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B380" s="40" t="s">
         <v>729</v>
@@ -11118,7 +11128,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B381" s="40" t="s">
         <v>731</v>
@@ -11132,7 +11142,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B382" s="40" t="s">
         <v>733</v>
@@ -11146,7 +11156,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B383" s="40" t="s">
         <v>735</v>
@@ -11160,7 +11170,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B384" s="40" t="s">
         <v>736</v>
@@ -11174,7 +11184,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B385" s="40" t="s">
         <v>738</v>
@@ -11188,7 +11198,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B386" s="40" t="s">
         <v>740</v>
@@ -11202,7 +11212,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B387" s="40" t="s">
         <v>742</v>
@@ -11216,7 +11226,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B388" s="40" t="s">
         <v>744</v>
@@ -11230,7 +11240,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B389" s="40" t="s">
         <v>746</v>
@@ -11244,7 +11254,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B390" s="40" t="s">
         <v>748</v>
@@ -11258,7 +11268,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B391" s="40" t="s">
         <v>749</v>
@@ -11272,7 +11282,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B392" s="40" t="s">
         <v>751</v>
@@ -11286,7 +11296,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B393" s="40" t="s">
         <v>753</v>
@@ -11300,7 +11310,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B394" s="40" t="s">
         <v>755</v>
@@ -11314,7 +11324,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B395" s="40" t="s">
         <v>757</v>
@@ -11328,7 +11338,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B396" s="40" t="s">
         <v>758</v>
@@ -11342,7 +11352,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B397" s="40" t="s">
         <v>760</v>
@@ -11356,7 +11366,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B398" s="40" t="s">
         <v>761</v>
@@ -11370,7 +11380,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B399" s="40" t="s">
         <v>763</v>
@@ -11384,7 +11394,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B400" s="40" t="s">
         <v>765</v>
@@ -11398,7 +11408,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B401" s="40" t="s">
         <v>767</v>
@@ -11412,7 +11422,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B402" s="40" t="s">
         <v>769</v>
@@ -11426,7 +11436,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B403" s="40" t="s">
         <v>771</v>
@@ -11440,7 +11450,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B404" s="40" t="s">
         <v>773</v>
@@ -11454,7 +11464,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B405" s="40" t="s">
         <v>775</v>
@@ -11468,7 +11478,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B406" s="40" t="s">
         <v>777</v>
@@ -11482,7 +11492,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B407" s="40" t="s">
         <v>778</v>
@@ -11496,7 +11506,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B408" s="40" t="s">
         <v>779</v>
@@ -11510,7 +11520,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B409" s="40" t="s">
         <v>781</v>
@@ -11524,7 +11534,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B410" s="40" t="s">
         <v>783</v>
@@ -11538,7 +11548,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B411" s="40" t="s">
         <v>785</v>
@@ -11552,7 +11562,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B412" s="40" t="s">
         <v>787</v>
@@ -11566,7 +11576,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B413" s="40" t="s">
         <v>789</v>
@@ -11580,7 +11590,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B414" s="40" t="s">
         <v>791</v>
@@ -11594,7 +11604,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B415" s="40" t="s">
         <v>792</v>
@@ -11608,7 +11618,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B416" s="40" t="s">
         <v>794</v>
@@ -11622,7 +11632,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B417" s="40" t="s">
         <v>795</v>
@@ -11636,7 +11646,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B418" s="40" t="s">
         <v>796</v>
@@ -11650,7 +11660,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B419" s="40" t="s">
         <v>798</v>
@@ -11664,7 +11674,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B420" s="40" t="s">
         <v>800</v>
@@ -11678,7 +11688,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B421" s="40" t="s">
         <v>801</v>
@@ -11692,7 +11702,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B422" s="40" t="s">
         <v>803</v>
@@ -11706,7 +11716,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B423" s="40" t="s">
         <v>805</v>
@@ -11720,7 +11730,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B424" s="40" t="s">
         <v>807</v>
@@ -11734,7 +11744,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B425" s="40" t="s">
         <v>809</v>
@@ -11748,7 +11758,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B426" s="40" t="s">
         <v>810</v>
@@ -11762,7 +11772,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B427" s="40" t="s">
         <v>812</v>
@@ -11776,7 +11786,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B428" s="40" t="s">
         <v>814</v>
@@ -11790,7 +11800,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B429" s="40" t="s">
         <v>816</v>
@@ -11804,7 +11814,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B430" s="40" t="s">
         <v>817</v>
@@ -11818,7 +11828,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B431" s="40" t="s">
         <v>819</v>
@@ -11832,7 +11842,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B432" s="40" t="s">
         <v>820</v>
@@ -11846,7 +11856,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B433" s="40" t="s">
         <v>821</v>
@@ -11860,7 +11870,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B434" s="40" t="s">
         <v>823</v>
@@ -11874,7 +11884,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B435" s="40" t="s">
         <v>824</v>
@@ -11888,7 +11898,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B436" s="40" t="s">
         <v>826</v>
@@ -11902,7 +11912,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B437" s="40" t="s">
         <v>828</v>
@@ -11916,7 +11926,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B438" s="40" t="s">
         <v>829</v>
@@ -11930,7 +11940,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B439" s="40" t="s">
         <v>831</v>
@@ -11944,7 +11954,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B440" s="40" t="s">
         <v>832</v>
@@ -11958,7 +11968,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B441" s="40" t="s">
         <v>834</v>
@@ -11972,7 +11982,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B442" s="40" t="s">
         <v>835</v>
@@ -11986,7 +11996,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B443" s="40" t="s">
         <v>837</v>
@@ -12000,7 +12010,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B444" s="40" t="s">
         <v>838</v>
@@ -12014,7 +12024,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B445" s="40" t="s">
         <v>840</v>
@@ -12028,7 +12038,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B446" s="40" t="s">
         <v>842</v>
@@ -12042,7 +12052,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B447" s="40" t="s">
         <v>843</v>
@@ -12056,7 +12066,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B448" s="40" t="s">
         <v>844</v>
@@ -12070,7 +12080,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B449" s="40" t="s">
         <v>846</v>
@@ -12084,7 +12094,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B450" s="40" t="s">
         <v>847</v>
@@ -12098,7 +12108,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B451" s="40" t="s">
         <v>849</v>
@@ -12112,7 +12122,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B452" s="40" t="s">
         <v>850</v>
@@ -12126,7 +12136,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B453" s="40" t="s">
         <v>852</v>
@@ -12140,7 +12150,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B454" s="40" t="s">
         <v>853</v>
@@ -12154,7 +12164,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B455" s="40" t="s">
         <v>855</v>
@@ -12168,7 +12178,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B456" s="40" t="s">
         <v>856</v>
@@ -12182,7 +12192,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B457" s="40" t="s">
         <v>858</v>
@@ -12196,7 +12206,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B458" s="40" t="s">
         <v>860</v>
@@ -12210,7 +12220,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B459" s="40" t="s">
         <v>861</v>
@@ -12224,7 +12234,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B460" s="40" t="s">
         <v>863</v>
@@ -12238,7 +12248,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B461" s="40" t="s">
         <v>864</v>
@@ -12252,7 +12262,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B462" s="40" t="s">
         <v>866</v>
@@ -12266,7 +12276,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B463" s="40" t="s">
         <v>867</v>
@@ -12280,7 +12290,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B464" s="40" t="s">
         <v>869</v>
@@ -12294,7 +12304,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B465" s="40" t="s">
         <v>871</v>
@@ -12308,7 +12318,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B466" s="40" t="s">
         <v>872</v>
@@ -12322,7 +12332,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B467" s="40" t="s">
         <v>874</v>
@@ -12336,7 +12346,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B468" s="40" t="s">
         <v>876</v>
@@ -12350,7 +12360,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B469" s="40" t="s">
         <v>878</v>
@@ -12364,7 +12374,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B470" s="40" t="s">
         <v>880</v>
@@ -12378,7 +12388,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B471" s="40" t="s">
         <v>882</v>
@@ -12392,7 +12402,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B472" s="40" t="s">
         <v>884</v>
@@ -12406,7 +12416,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B473" s="40" t="s">
         <v>886</v>
@@ -12420,7 +12430,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B474" s="40" t="s">
         <v>888</v>
@@ -12434,7 +12444,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B475" s="40" t="s">
         <v>890</v>
@@ -12448,7 +12458,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B476" s="40" t="s">
         <v>892</v>
@@ -12462,7 +12472,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B477" s="40" t="s">
         <v>894</v>
@@ -12476,7 +12486,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B478" s="40" t="s">
         <v>896</v>
@@ -12490,7 +12500,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B479" s="40" t="s">
         <v>898</v>
@@ -12504,7 +12514,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B480" s="40" t="s">
         <v>900</v>
@@ -12518,7 +12528,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B481" s="40" t="s">
         <v>901</v>
@@ -12532,7 +12542,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B482" s="40" t="s">
         <v>903</v>
@@ -12546,7 +12556,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B483" s="40" t="s">
         <v>905</v>
@@ -12560,7 +12570,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B484" s="40" t="s">
         <v>906</v>
@@ -12574,7 +12584,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B485" s="40" t="s">
         <v>908</v>
@@ -12588,7 +12598,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B486" s="40" t="s">
         <v>910</v>
@@ -12602,7 +12612,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B487" s="40" t="s">
         <v>912</v>
@@ -12616,7 +12626,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B488" s="40" t="s">
         <v>914</v>
@@ -12630,7 +12640,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B489" s="40" t="s">
         <v>916</v>
@@ -12644,7 +12654,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B490" s="40" t="s">
         <v>918</v>
@@ -12658,7 +12668,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B491" s="40" t="s">
         <v>920</v>
@@ -12672,7 +12682,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B492" s="40" t="s">
         <v>922</v>
@@ -12686,7 +12696,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B493" s="40" t="s">
         <v>923</v>
@@ -12700,7 +12710,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B494" s="40" t="s">
         <v>925</v>
@@ -12714,7 +12724,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B495" s="40" t="s">
         <v>927</v>
@@ -12728,7 +12738,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B496" s="40" t="s">
         <v>929</v>
@@ -12742,7 +12752,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B497" s="40" t="s">
         <v>931</v>
@@ -12756,7 +12766,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B498" s="40" t="s">
         <v>933</v>
@@ -12770,7 +12780,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B499" s="40" t="s">
         <v>935</v>
@@ -12784,7 +12794,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B500" s="40" t="s">
         <v>937</v>
@@ -12798,7 +12808,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B501" s="40" t="s">
         <v>939</v>
@@ -12812,7 +12822,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B502" s="40" t="s">
         <v>941</v>
@@ -12826,7 +12836,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B503" s="40" t="s">
         <v>942</v>
@@ -12840,7 +12850,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B504" s="40" t="s">
         <v>944</v>
@@ -12854,7 +12864,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B505" s="40" t="s">
         <v>945</v>
@@ -12868,7 +12878,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B506" s="40" t="s">
         <v>947</v>
@@ -12882,7 +12892,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B507" s="40" t="s">
         <v>949</v>
@@ -12896,7 +12906,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B508" s="40" t="s">
         <v>951</v>
@@ -12910,7 +12920,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B509" s="40" t="s">
         <v>953</v>
@@ -12924,7 +12934,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B510" s="40" t="s">
         <v>955</v>
@@ -12938,7 +12948,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B511" s="40" t="s">
         <v>956</v>
@@ -12952,7 +12962,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B512" s="40" t="s">
         <v>958</v>
@@ -12966,7 +12976,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B513" s="40" t="s">
         <v>959</v>
@@ -12980,7 +12990,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B514" s="40" t="s">
         <v>961</v>
@@ -12994,7 +13004,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B515" s="40" t="s">
         <v>963</v>
@@ -13008,7 +13018,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B516" s="40" t="s">
         <v>965</v>
@@ -13022,7 +13032,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B517" s="40" t="s">
         <v>967</v>
@@ -13036,7 +13046,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B518" s="40" t="s">
         <v>968</v>
@@ -13050,7 +13060,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B519" s="40" t="s">
         <v>970</v>
@@ -13064,7 +13074,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B520" s="40" t="s">
         <v>972</v>
@@ -13078,7 +13088,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B521" s="40" t="s">
         <v>974</v>
@@ -13092,7 +13102,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B522" s="40" t="s">
         <v>976</v>
@@ -13106,7 +13116,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B523" s="40" t="s">
         <v>978</v>
@@ -13120,7 +13130,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B524" s="40" t="s">
         <v>979</v>
@@ -13134,7 +13144,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B525" s="40" t="s">
         <v>981</v>
@@ -13148,7 +13158,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B526" s="40" t="s">
         <v>983</v>
@@ -13162,7 +13172,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B527" s="40" t="s">
         <v>985</v>
@@ -13176,7 +13186,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B528" s="40" t="s">
         <v>987</v>
@@ -13190,7 +13200,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B529" s="40" t="s">
         <v>989</v>
@@ -13204,7 +13214,7 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B530" s="40" t="s">
         <v>991</v>
@@ -13218,7 +13228,7 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B531" s="40" t="s">
         <v>992</v>
@@ -13232,7 +13242,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B532" s="40" t="s">
         <v>994</v>
@@ -13246,7 +13256,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B533" s="40" t="s">
         <v>996</v>
@@ -13260,7 +13270,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B534" s="40" t="s">
         <v>998</v>
@@ -13274,7 +13284,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="54" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B535" s="40" t="s">
         <v>999</v>
@@ -13293,13 +13303,13 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="54" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B537" s="32" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C537" s="62" t="s">
         <v>1103</v>
-      </c>
-      <c r="C537" s="62" t="s">
-        <v>1106</v>
       </c>
       <c r="F537" s="32" t="s">
         <v>606</v>
@@ -13308,13 +13318,13 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="54" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B538" s="32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C538" s="62" t="s">
         <v>1104</v>
-      </c>
-      <c r="C538" s="62" t="s">
-        <v>1107</v>
       </c>
       <c r="F538" s="32" t="s">
         <v>606</v>
@@ -13323,13 +13333,13 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="54" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B539" s="32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C539" s="62" t="s">
         <v>1105</v>
-      </c>
-      <c r="C539" s="62" t="s">
-        <v>1108</v>
       </c>
       <c r="F539" s="32" t="s">
         <v>606</v>
@@ -30742,7 +30752,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30770,16 +30780,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="58">
-        <v>201902271</v>
+        <v>201904031</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
+++ b/ILRG_ORAM_B_lideres/ILRG_ORAM_B_lideres-media/ILRG_ORAM_B_lideres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_B_lideres\ILRG_ORAM_B_lideres-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B4CCE-4DB5-4B67-9926-3B2F3EFB4612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2831E96-07D8-4255-AA1E-120B9D78D455}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1137">
   <si>
     <t>type</t>
   </si>
@@ -3376,14 +3376,87 @@
   <si>
     <t>contact</t>
   </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3602,392 +3675,402 @@
   </borders>
   <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="236" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="236"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4565,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
@@ -5074,13 +5157,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:C15"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,305 +5194,495 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="70" t="s">
         <v>1047</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="69" t="s">
         <v>1048</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="69" t="s">
         <v>1049</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="70" t="s">
         <v>1050</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="24"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="69" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>1051</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C10" s="70" t="s">
         <v>1052</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B11" s="69" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C13" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B14" s="69" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="69" t="s">
         <v>1055</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C16" s="70" t="s">
         <v>1056</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="D16" s="68"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B17" s="69" t="s">
         <v>1096</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C17" s="70" t="s">
         <v>1057</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="72"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B18" s="69" t="s">
         <v>1058</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C18" s="70" t="s">
         <v>1059</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B19" s="69" t="s">
         <v>1060</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C19" s="70" t="s">
         <v>1061</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B20" s="69" t="s">
         <v>1062</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C20" s="70" t="s">
         <v>1063</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="72"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B21" s="69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="72"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69" t="s">
         <v>1097</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C23" s="70" t="s">
         <v>1064</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="D23" s="68"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B24" s="69" t="s">
         <v>1065</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C24" s="70" t="s">
         <v>1066</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B25" s="69" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="73"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="73"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="69" t="s">
         <v>1067</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C27" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="73"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="47"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="48"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B31" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B32" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B33" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B34" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B35" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B36" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B37" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B38" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B39" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B40" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5419,9 +5692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4203"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
+      <selection pane="bottomLeft" activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30752,7 +31025,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30786,7 +31059,7 @@
         <v>1095</v>
       </c>
       <c r="C2" s="58">
-        <v>201904031</v>
+        <v>201904102</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>1099</v>
